--- a/data/case1/18/P1_2.xlsx
+++ b/data/case1/18/P1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.42512175285804688</v>
+        <v>0.41111872142219852</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995298141187</v>
+        <v>-0.060725433925082228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999522597335</v>
+        <v>-0.0089999997117047315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999876621814</v>
+        <v>-0.011999999922139182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995294690578</v>
+        <v>-0.0059999997146276129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995162804964</v>
+        <v>-0.0059999997046276121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.032022629637243227</v>
+        <v>-0.019999999649272127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999426640436</v>
+        <v>-0.019999999644886302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995115882498</v>
+        <v>-0.0059999996934472222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995111823523</v>
+        <v>-0.0059999996887185603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.050552626033546488</v>
+        <v>-0.0044999996939800724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995094388581</v>
+        <v>-0.0059999996870008232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995019239805</v>
+        <v>-0.0059999996819239954</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999462698696</v>
+        <v>-0.011999999657259508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994979298421</v>
+        <v>-0.0059999996791475496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994963089165</v>
+        <v>-0.0059999996780386589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994942145918</v>
+        <v>-0.0059999996765736086</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994752973933</v>
+        <v>-0.0089999996646294989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.046782642372183769</v>
+        <v>-0.0089999997205287841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995164857793</v>
+        <v>-0.031265225203304325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995124334653</v>
+        <v>-0.0089999997155514322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.080805833326751397</v>
+        <v>-0.0089999997152503397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995182665771</v>
+        <v>-0.0089999997092053974</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04199999930761944</v>
+        <v>-0.041999999577526204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999303701685</v>
+        <v>-0.04199999957517786</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995151152063</v>
+        <v>-0.0059999997041266795</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995134139006</v>
+        <v>-0.0059999997034032582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995068009682</v>
+        <v>-0.005999999700828873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.014698121252731511</v>
+        <v>-0.011999999676191919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999412674718</v>
+        <v>-0.019999999644922717</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999438506606</v>
+        <v>0.031590929329297524</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999400756586</v>
+        <v>-0.020999999640889833</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994928325862</v>
+        <v>-0.0059999996984299031</v>
       </c>
     </row>
   </sheetData>
